--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adam17-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adam17-Itga5.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.997495</v>
+        <v>15.9868135</v>
       </c>
       <c r="H2">
-        <v>41.99499</v>
+        <v>31.973627</v>
       </c>
       <c r="I2">
-        <v>0.1182619877338827</v>
+        <v>0.07937441194885332</v>
       </c>
       <c r="J2">
-        <v>0.08414285444023263</v>
+        <v>0.05566239160619865</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N2">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O2">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P2">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q2">
-        <v>996.6280843242901</v>
+        <v>686.8054181360576</v>
       </c>
       <c r="R2">
-        <v>3986.51233729716</v>
+        <v>2747.22167254423</v>
       </c>
       <c r="S2">
-        <v>0.0265200252076292</v>
+        <v>0.01531441963040893</v>
       </c>
       <c r="T2">
-        <v>0.01385790391425813</v>
+        <v>0.007858115513220871</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.997495</v>
+        <v>15.9868135</v>
       </c>
       <c r="H3">
-        <v>41.99499</v>
+        <v>31.973627</v>
       </c>
       <c r="I3">
-        <v>0.1182619877338827</v>
+        <v>0.07937441194885332</v>
       </c>
       <c r="J3">
-        <v>0.08414285444023263</v>
+        <v>0.05566239160619865</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>209.931938</v>
       </c>
       <c r="O3">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P3">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q3">
-        <v>1469.34827283177</v>
+        <v>1118.714246833188</v>
       </c>
       <c r="R3">
-        <v>8816.08963699062</v>
+        <v>6712.285480999126</v>
       </c>
       <c r="S3">
-        <v>0.03909899173742887</v>
+        <v>0.0249451430785398</v>
       </c>
       <c r="T3">
-        <v>0.03064646807834422</v>
+        <v>0.01919973011080606</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.997495</v>
+        <v>15.9868135</v>
       </c>
       <c r="H4">
-        <v>41.99499</v>
+        <v>31.973627</v>
       </c>
       <c r="I4">
-        <v>0.1182619877338827</v>
+        <v>0.07937441194885332</v>
       </c>
       <c r="J4">
-        <v>0.08414285444023263</v>
+        <v>0.05566239160619865</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N4">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O4">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P4">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q4">
-        <v>694.8205409476351</v>
+        <v>612.8178750617094</v>
       </c>
       <c r="R4">
-        <v>4168.92324568581</v>
+        <v>3676.907250370256</v>
       </c>
       <c r="S4">
-        <v>0.01848900161508397</v>
+        <v>0.01366464190276867</v>
       </c>
       <c r="T4">
-        <v>0.01449200024395275</v>
+        <v>0.01051737549742398</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.997495</v>
+        <v>15.9868135</v>
       </c>
       <c r="H5">
-        <v>41.99499</v>
+        <v>31.973627</v>
       </c>
       <c r="I5">
-        <v>0.1182619877338827</v>
+        <v>0.07937441194885332</v>
       </c>
       <c r="J5">
-        <v>0.08414285444023263</v>
+        <v>0.05566239160619865</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N5">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O5">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P5">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q5">
-        <v>233.5873365435826</v>
+        <v>262.4289711256833</v>
       </c>
       <c r="R5">
-        <v>934.3493461743302</v>
+        <v>1049.715884502733</v>
       </c>
       <c r="S5">
-        <v>0.006215700872526372</v>
+        <v>0.005851653584653318</v>
       </c>
       <c r="T5">
-        <v>0.003247982789490762</v>
+        <v>0.003002593041152739</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.997495</v>
+        <v>15.9868135</v>
       </c>
       <c r="H6">
-        <v>41.99499</v>
+        <v>31.973627</v>
       </c>
       <c r="I6">
-        <v>0.1182619877338827</v>
+        <v>0.07937441194885332</v>
       </c>
       <c r="J6">
-        <v>0.08414285444023263</v>
+        <v>0.05566239160619865</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N6">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O6">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P6">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q6">
-        <v>538.5853757942551</v>
+        <v>417.0880454133797</v>
       </c>
       <c r="R6">
-        <v>3231.512254765531</v>
+        <v>2502.528272480278</v>
       </c>
       <c r="S6">
-        <v>0.01433162276598709</v>
+        <v>0.009300248922937565</v>
       </c>
       <c r="T6">
-        <v>0.01123337457288552</v>
+        <v>0.007158197839215136</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.997495</v>
+        <v>15.9868135</v>
       </c>
       <c r="H7">
-        <v>41.99499</v>
+        <v>31.973627</v>
       </c>
       <c r="I7">
-        <v>0.1182619877338827</v>
+        <v>0.07937441194885332</v>
       </c>
       <c r="J7">
-        <v>0.08414285444023263</v>
+        <v>0.05566239160619865</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N7">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O7">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P7">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q7">
-        <v>511.340580096885</v>
+        <v>461.8478352587366</v>
       </c>
       <c r="R7">
-        <v>3068.04348058131</v>
+        <v>2771.087011552419</v>
       </c>
       <c r="S7">
-        <v>0.01360664553522719</v>
+        <v>0.01029830482954504</v>
       </c>
       <c r="T7">
-        <v>0.01066512484130125</v>
+        <v>0.007926379604379866</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>53.47854</v>
       </c>
       <c r="I8">
-        <v>0.100400523038676</v>
+        <v>0.08850685315084274</v>
       </c>
       <c r="J8">
-        <v>0.1071517580286638</v>
+        <v>0.09309996129021456</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N8">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O8">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P8">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q8">
-        <v>846.1043388375599</v>
+        <v>765.8259733041001</v>
       </c>
       <c r="R8">
-        <v>5076.62603302536</v>
+        <v>4594.955839824601</v>
       </c>
       <c r="S8">
-        <v>0.02251462581397141</v>
+        <v>0.01707642369926959</v>
       </c>
       <c r="T8">
-        <v>0.01764735433428629</v>
+        <v>0.01314334919833783</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>53.47854</v>
       </c>
       <c r="I9">
-        <v>0.100400523038676</v>
+        <v>0.08850685315084274</v>
       </c>
       <c r="J9">
-        <v>0.1071517580286638</v>
+        <v>0.09309996129021456</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>209.931938</v>
       </c>
       <c r="O9">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P9">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q9">
         <v>1247.42817151228</v>
@@ -1013,10 +1013,10 @@
         <v>11226.85354361052</v>
       </c>
       <c r="S9">
-        <v>0.0331937530895909</v>
+        <v>0.02781521224625562</v>
       </c>
       <c r="T9">
-        <v>0.03902675935835332</v>
+        <v>0.03211313920438073</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>53.47854</v>
       </c>
       <c r="I10">
-        <v>0.100400523038676</v>
+        <v>0.08850685315084274</v>
       </c>
       <c r="J10">
-        <v>0.1071517580286638</v>
+        <v>0.09309996129021456</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N10">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O10">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P10">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q10">
-        <v>589.8796990131399</v>
+        <v>683.3257764636801</v>
       </c>
       <c r="R10">
-        <v>5308.91729111826</v>
+        <v>6149.931988173121</v>
       </c>
       <c r="S10">
-        <v>0.01569655193682759</v>
+        <v>0.01523683041616122</v>
       </c>
       <c r="T10">
-        <v>0.01845484460708852</v>
+        <v>0.01759118182726058</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>53.47854</v>
       </c>
       <c r="I11">
-        <v>0.100400523038676</v>
+        <v>0.08850685315084274</v>
       </c>
       <c r="J11">
-        <v>0.1071517580286638</v>
+        <v>0.09309996129021456</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N11">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O11">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P11">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q11">
-        <v>198.30793658703</v>
+        <v>292.62279668811</v>
       </c>
       <c r="R11">
-        <v>1189.84761952218</v>
+        <v>1755.73678012866</v>
       </c>
       <c r="S11">
-        <v>0.005276924822690142</v>
+        <v>0.006524916932175088</v>
       </c>
       <c r="T11">
-        <v>0.004136145228921194</v>
+        <v>0.005022085609962499</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>53.47854</v>
       </c>
       <c r="I12">
-        <v>0.100400523038676</v>
+        <v>0.08850685315084274</v>
       </c>
       <c r="J12">
-        <v>0.1071517580286638</v>
+        <v>0.09309996129021456</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N12">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O12">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P12">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q12">
-        <v>457.24120207082</v>
+        <v>465.0762062988401</v>
       </c>
       <c r="R12">
-        <v>4115.17081863738</v>
+        <v>4185.685856689561</v>
       </c>
       <c r="S12">
-        <v>0.01216707455430201</v>
+        <v>0.01037029119937448</v>
       </c>
       <c r="T12">
-        <v>0.01430514619555907</v>
+        <v>0.01197267890415999</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>53.47854</v>
       </c>
       <c r="I13">
-        <v>0.100400523038676</v>
+        <v>0.08850685315084274</v>
       </c>
       <c r="J13">
-        <v>0.1071517580286638</v>
+        <v>0.09309996129021456</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N13">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O13">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P13">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q13">
-        <v>434.1112700401399</v>
+        <v>514.9858440478201</v>
       </c>
       <c r="R13">
-        <v>3907.001430361259</v>
+        <v>4634.87259643038</v>
       </c>
       <c r="S13">
-        <v>0.01155159282129398</v>
+        <v>0.01148317865760674</v>
       </c>
       <c r="T13">
-        <v>0.01358150830445543</v>
+        <v>0.01325752654611292</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>46.51111466666666</v>
+        <v>54.866852</v>
       </c>
       <c r="H14">
-        <v>139.533344</v>
+        <v>164.600556</v>
       </c>
       <c r="I14">
-        <v>0.2619596705320584</v>
+        <v>0.2724135183652932</v>
       </c>
       <c r="J14">
-        <v>0.2795746314917781</v>
+        <v>0.2865505563904286</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N14">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O14">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P14">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q14">
-        <v>2207.61015111695</v>
+        <v>2357.12083772474</v>
       </c>
       <c r="R14">
-        <v>13245.6609067017</v>
+        <v>14142.72502634844</v>
       </c>
       <c r="S14">
-        <v>0.05874395652409644</v>
+        <v>0.05255919169430115</v>
       </c>
       <c r="T14">
-        <v>0.04604453231176207</v>
+        <v>0.0404536583412442</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>46.51111466666666</v>
+        <v>54.866852</v>
       </c>
       <c r="H15">
-        <v>139.533344</v>
+        <v>164.600556</v>
       </c>
       <c r="I15">
-        <v>0.2619596705320584</v>
+        <v>0.2724135183652932</v>
       </c>
       <c r="J15">
-        <v>0.2795746314917781</v>
+        <v>0.2865505563904286</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>209.931938</v>
       </c>
       <c r="O15">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P15">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q15">
-        <v>3254.722813504519</v>
+        <v>3839.434857439725</v>
       </c>
       <c r="R15">
-        <v>29292.50532154067</v>
+        <v>34554.91371695753</v>
       </c>
       <c r="S15">
-        <v>0.08660736378556616</v>
+        <v>0.08561189967025433</v>
       </c>
       <c r="T15">
-        <v>0.1018265315162743</v>
+        <v>0.0988404052905421</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>46.51111466666666</v>
+        <v>54.866852</v>
       </c>
       <c r="H16">
-        <v>139.533344</v>
+        <v>164.600556</v>
       </c>
       <c r="I16">
-        <v>0.2619596705320584</v>
+        <v>0.2724135183652932</v>
       </c>
       <c r="J16">
-        <v>0.2795746314917781</v>
+        <v>0.2865505563904286</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N16">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O16">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P16">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q16">
-        <v>1539.082535929682</v>
+        <v>2103.195089751019</v>
       </c>
       <c r="R16">
-        <v>13851.74282336714</v>
+        <v>18928.75580775917</v>
       </c>
       <c r="S16">
-        <v>0.04095460311772217</v>
+        <v>0.0468971433808374</v>
       </c>
       <c r="T16">
-        <v>0.04815139270869078</v>
+        <v>0.05414355570410462</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>46.51111466666666</v>
+        <v>54.866852</v>
       </c>
       <c r="H17">
-        <v>139.533344</v>
+        <v>164.600556</v>
       </c>
       <c r="I17">
-        <v>0.2619596705320584</v>
+        <v>0.2724135183652932</v>
       </c>
       <c r="J17">
-        <v>0.2795746314917781</v>
+        <v>0.2865505563904286</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N17">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O17">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P17">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q17">
-        <v>517.4144532316748</v>
+        <v>900.6580028762542</v>
       </c>
       <c r="R17">
-        <v>3104.486719390049</v>
+        <v>5403.948017257525</v>
       </c>
       <c r="S17">
-        <v>0.01376826978721862</v>
+        <v>0.02008291465866184</v>
       </c>
       <c r="T17">
-        <v>0.01079180873413934</v>
+        <v>0.01545737942134221</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>46.51111466666666</v>
+        <v>54.866852</v>
       </c>
       <c r="H18">
-        <v>139.533344</v>
+        <v>164.600556</v>
       </c>
       <c r="I18">
-        <v>0.2619596705320584</v>
+        <v>0.2724135183652932</v>
       </c>
       <c r="J18">
-        <v>0.2795746314917781</v>
+        <v>0.2865505563904286</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N18">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O18">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P18">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q18">
-        <v>1193.009269503641</v>
+        <v>1431.448991299309</v>
       </c>
       <c r="R18">
-        <v>10737.08342553277</v>
+        <v>12883.04092169379</v>
       </c>
       <c r="S18">
-        <v>0.03174567965503675</v>
+        <v>0.03191851717154108</v>
       </c>
       <c r="T18">
-        <v>0.03732422173595679</v>
+        <v>0.03685047505848524</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>46.51111466666666</v>
+        <v>54.866852</v>
       </c>
       <c r="H19">
-        <v>139.533344</v>
+        <v>164.600556</v>
       </c>
       <c r="I19">
-        <v>0.2619596705320584</v>
+        <v>0.2724135183652932</v>
       </c>
       <c r="J19">
-        <v>0.2795746314917781</v>
+        <v>0.2865505563904286</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N19">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O19">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P19">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q19">
-        <v>1132.659888934659</v>
+        <v>1585.064892616748</v>
       </c>
       <c r="R19">
-        <v>10193.93900041194</v>
+        <v>14265.58403355073</v>
       </c>
       <c r="S19">
-        <v>0.0301397976624183</v>
+        <v>0.03534385178969737</v>
       </c>
       <c r="T19">
-        <v>0.03543614448495482</v>
+        <v>0.04080508257471028</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.562933</v>
+        <v>13.823038</v>
       </c>
       <c r="H20">
-        <v>25.125866</v>
+        <v>27.646076</v>
       </c>
       <c r="I20">
-        <v>0.07075688925500828</v>
+        <v>0.06863128243765736</v>
       </c>
       <c r="J20">
-        <v>0.05034319773674883</v>
+        <v>0.04812862515368463</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N20">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O20">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P20">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q20">
-        <v>596.288835848486</v>
+        <v>593.8480106433101</v>
       </c>
       <c r="R20">
-        <v>2385.155343393944</v>
+        <v>2375.39204257324</v>
       </c>
       <c r="S20">
-        <v>0.01586709747242501</v>
+        <v>0.01324165097060078</v>
       </c>
       <c r="T20">
-        <v>0.00829127085851253</v>
+        <v>0.006794539096089512</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.562933</v>
+        <v>13.823038</v>
       </c>
       <c r="H21">
-        <v>25.125866</v>
+        <v>27.646076</v>
       </c>
       <c r="I21">
-        <v>0.07075688925500828</v>
+        <v>0.06863128243765736</v>
       </c>
       <c r="J21">
-        <v>0.05034319773674883</v>
+        <v>0.04812862515368463</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>209.931938</v>
       </c>
       <c r="O21">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P21">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q21">
-        <v>879.1202905513845</v>
+        <v>967.2990521292146</v>
       </c>
       <c r="R21">
-        <v>5274.721743308308</v>
+        <v>5803.794312775288</v>
       </c>
       <c r="S21">
-        <v>0.02339317206956699</v>
+        <v>0.02156887992032262</v>
       </c>
       <c r="T21">
-        <v>0.01833597413190845</v>
+        <v>0.01660109432761046</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.562933</v>
+        <v>13.823038</v>
       </c>
       <c r="H22">
-        <v>25.125866</v>
+        <v>27.646076</v>
       </c>
       <c r="I22">
-        <v>0.07075688925500828</v>
+        <v>0.06863128243765736</v>
       </c>
       <c r="J22">
-        <v>0.05034319773674883</v>
+        <v>0.04812862515368463</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N22">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O22">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P22">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q22">
-        <v>415.7154890594757</v>
+        <v>529.8744977576214</v>
       </c>
       <c r="R22">
-        <v>2494.292934356854</v>
+        <v>3179.246986545728</v>
       </c>
       <c r="S22">
-        <v>0.011062085669133</v>
+        <v>0.01181516656076357</v>
       </c>
       <c r="T22">
-        <v>0.008670654670986324</v>
+        <v>0.009093874846363884</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.562933</v>
+        <v>13.823038</v>
       </c>
       <c r="H23">
-        <v>25.125866</v>
+        <v>27.646076</v>
       </c>
       <c r="I23">
-        <v>0.07075688925500828</v>
+        <v>0.06863128243765736</v>
       </c>
       <c r="J23">
-        <v>0.05034319773674883</v>
+        <v>0.04812862515368463</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N23">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O23">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P23">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q23">
-        <v>139.7567690167555</v>
+        <v>226.909861691401</v>
       </c>
       <c r="R23">
-        <v>559.0270760670221</v>
+        <v>907.6394467656041</v>
       </c>
       <c r="S23">
-        <v>0.003718892830291916</v>
+        <v>0.005059646806006652</v>
       </c>
       <c r="T23">
-        <v>0.001943288481293866</v>
+        <v>0.002596199530718856</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.562933</v>
+        <v>13.823038</v>
       </c>
       <c r="H24">
-        <v>25.125866</v>
+        <v>27.646076</v>
       </c>
       <c r="I24">
-        <v>0.07075688925500828</v>
+        <v>0.06863128243765736</v>
       </c>
       <c r="J24">
-        <v>0.05034319773674883</v>
+        <v>0.04812862515368463</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N24">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O24">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P24">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q24">
-        <v>322.2390095048503</v>
+        <v>360.6362144085107</v>
       </c>
       <c r="R24">
-        <v>1933.434057029102</v>
+        <v>2163.817286451064</v>
       </c>
       <c r="S24">
-        <v>0.008574699819686608</v>
+        <v>0.008041483330697831</v>
       </c>
       <c r="T24">
-        <v>0.006720998486870191</v>
+        <v>0.006189353540840939</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.562933</v>
+        <v>13.823038</v>
       </c>
       <c r="H25">
-        <v>25.125866</v>
+        <v>27.646076</v>
       </c>
       <c r="I25">
-        <v>0.07075688925500828</v>
+        <v>0.06863128243765736</v>
       </c>
       <c r="J25">
-        <v>0.05034319773674883</v>
+        <v>0.04812862515368463</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N25">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O25">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P25">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q25">
-        <v>305.9382773010923</v>
+        <v>399.3378778703621</v>
       </c>
       <c r="R25">
-        <v>1835.629663806554</v>
+        <v>2396.027267222172</v>
       </c>
       <c r="S25">
-        <v>0.008140941393904767</v>
+        <v>0.008904454849265907</v>
       </c>
       <c r="T25">
-        <v>0.006381011107177464</v>
+        <v>0.006853563812060975</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>14.25188766666667</v>
+        <v>61.450695</v>
       </c>
       <c r="H26">
-        <v>42.755663</v>
+        <v>184.352085</v>
       </c>
       <c r="I26">
-        <v>0.08026941139502627</v>
+        <v>0.305102250643841</v>
       </c>
       <c r="J26">
-        <v>0.08566696951956983</v>
+        <v>0.3209356870488675</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N26">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O26">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P26">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q26">
-        <v>676.4536199787153</v>
+        <v>2639.967637967775</v>
       </c>
       <c r="R26">
-        <v>4058.721719872292</v>
+        <v>15839.80582780665</v>
       </c>
       <c r="S26">
-        <v>0.01800026242065064</v>
+        <v>0.05886612299632268</v>
       </c>
       <c r="T26">
-        <v>0.01410891798389287</v>
+        <v>0.0453079651874688</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>14.25188766666667</v>
+        <v>61.450695</v>
       </c>
       <c r="H27">
-        <v>42.755663</v>
+        <v>184.352085</v>
       </c>
       <c r="I27">
-        <v>0.08026941139502627</v>
+        <v>0.305102250643841</v>
       </c>
       <c r="J27">
-        <v>0.08566696951956983</v>
+        <v>0.3209356870488675</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>209.931938</v>
       </c>
       <c r="O27">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P27">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q27">
-        <v>997.3087993405437</v>
+        <v>4300.154497598969</v>
       </c>
       <c r="R27">
-        <v>8975.779194064893</v>
+        <v>38701.39047839073</v>
       </c>
       <c r="S27">
-        <v>0.02653813886474383</v>
+        <v>0.09588504795222076</v>
       </c>
       <c r="T27">
-        <v>0.03120158050514937</v>
+        <v>0.1107009310318275</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>14.25188766666667</v>
+        <v>61.450695</v>
       </c>
       <c r="H28">
-        <v>42.755663</v>
+        <v>184.352085</v>
       </c>
       <c r="I28">
-        <v>0.08026941139502627</v>
+        <v>0.305102250643841</v>
       </c>
       <c r="J28">
-        <v>0.08566696951956983</v>
+        <v>0.3209356870488675</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N28">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O28">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P28">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q28">
-        <v>471.6040793474775</v>
+        <v>2355.57162976632</v>
       </c>
       <c r="R28">
-        <v>4244.436714127297</v>
+        <v>21200.14466789688</v>
       </c>
       <c r="S28">
-        <v>0.01254926714291373</v>
+        <v>0.0525246473821226</v>
       </c>
       <c r="T28">
-        <v>0.01475449996836197</v>
+        <v>0.06064060551147427</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>14.25188766666667</v>
+        <v>61.450695</v>
       </c>
       <c r="H29">
-        <v>42.755663</v>
+        <v>184.352085</v>
       </c>
       <c r="I29">
-        <v>0.08026941139502627</v>
+        <v>0.305102250643841</v>
       </c>
       <c r="J29">
-        <v>0.08566696951956983</v>
+        <v>0.3209356870488675</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N29">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O29">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P29">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q29">
-        <v>158.5456017860702</v>
+        <v>1008.734020935953</v>
       </c>
       <c r="R29">
-        <v>951.2736107164211</v>
+        <v>6052.404125615715</v>
       </c>
       <c r="S29">
-        <v>0.004218858992696407</v>
+        <v>0.02249279881048138</v>
       </c>
       <c r="T29">
-        <v>0.003306814874280646</v>
+        <v>0.01731221445546351</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>14.25188766666667</v>
+        <v>61.450695</v>
       </c>
       <c r="H30">
-        <v>42.755663</v>
+        <v>184.352085</v>
       </c>
       <c r="I30">
-        <v>0.08026941139502627</v>
+        <v>0.305102250643841</v>
       </c>
       <c r="J30">
-        <v>0.08566696951956983</v>
+        <v>0.3209356870488675</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N30">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O30">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P30">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q30">
-        <v>365.5606668666513</v>
+        <v>1603.21819397241</v>
       </c>
       <c r="R30">
-        <v>3290.046001799861</v>
+        <v>14428.96374575169</v>
       </c>
       <c r="S30">
-        <v>0.009727478336910693</v>
+        <v>0.03574863496015106</v>
       </c>
       <c r="T30">
-        <v>0.01143684943349343</v>
+        <v>0.04127241168172147</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>14.25188766666667</v>
+        <v>61.450695</v>
       </c>
       <c r="H31">
-        <v>42.755663</v>
+        <v>184.352085</v>
       </c>
       <c r="I31">
-        <v>0.08026941139502627</v>
+        <v>0.305102250643841</v>
       </c>
       <c r="J31">
-        <v>0.08566696951956983</v>
+        <v>0.3209356870488675</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N31">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O31">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P31">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q31">
-        <v>347.0684720700719</v>
+        <v>1775.267501612805</v>
       </c>
       <c r="R31">
-        <v>3123.616248630647</v>
+        <v>15977.40751451525</v>
       </c>
       <c r="S31">
-        <v>0.009235405637110974</v>
+        <v>0.03958499854254254</v>
       </c>
       <c r="T31">
-        <v>0.01085830675439153</v>
+        <v>0.04570155918091192</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>65.40105833333332</v>
+        <v>37.45658766666667</v>
       </c>
       <c r="H32">
-        <v>196.203175</v>
+        <v>112.369763</v>
       </c>
       <c r="I32">
-        <v>0.3683515180453484</v>
+        <v>0.1859716834535124</v>
       </c>
       <c r="J32">
-        <v>0.3931205887830069</v>
+        <v>0.195622778510606</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N32">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O32">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P32">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q32">
-        <v>3104.205119683616</v>
+        <v>1609.162911317812</v>
       </c>
       <c r="R32">
-        <v>18625.2307181017</v>
+        <v>9654.977467906871</v>
       </c>
       <c r="S32">
-        <v>0.08260212542522943</v>
+        <v>0.03588119054810598</v>
       </c>
       <c r="T32">
-        <v>0.06474497902779287</v>
+        <v>0.02761696625307015</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>65.40105833333332</v>
+        <v>37.45658766666667</v>
       </c>
       <c r="H33">
-        <v>196.203175</v>
+        <v>112.369763</v>
       </c>
       <c r="I33">
-        <v>0.3683515180453484</v>
+        <v>0.1859716834535124</v>
       </c>
       <c r="J33">
-        <v>0.3931205887830069</v>
+        <v>0.195622778510606</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>209.931938</v>
       </c>
       <c r="O33">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P33">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q33">
-        <v>4576.590307722571</v>
+        <v>2621.111346576744</v>
       </c>
       <c r="R33">
-        <v>41189.31276950315</v>
+        <v>23590.0021191907</v>
       </c>
       <c r="S33">
-        <v>0.1217819287202642</v>
+        <v>0.05844566452087962</v>
       </c>
       <c r="T33">
-        <v>0.1431821829105635</v>
+        <v>0.06747652126595587</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>65.40105833333332</v>
+        <v>37.45658766666667</v>
       </c>
       <c r="H34">
-        <v>196.203175</v>
+        <v>112.369763</v>
       </c>
       <c r="I34">
-        <v>0.3683515180453484</v>
+        <v>0.1859716834535124</v>
       </c>
       <c r="J34">
-        <v>0.3931205887830069</v>
+        <v>0.195622778510606</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N34">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O34">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P34">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q34">
-        <v>2164.162855126981</v>
+        <v>1435.812487644852</v>
       </c>
       <c r="R34">
-        <v>19477.46569614282</v>
+        <v>12922.31238880367</v>
       </c>
       <c r="S34">
-        <v>0.05758783479425526</v>
+        <v>0.03201581461900845</v>
       </c>
       <c r="T34">
-        <v>0.06770751606237561</v>
+        <v>0.03696280662896141</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>65.40105833333332</v>
+        <v>37.45658766666667</v>
       </c>
       <c r="H35">
-        <v>196.203175</v>
+        <v>112.369763</v>
       </c>
       <c r="I35">
-        <v>0.3683515180453484</v>
+        <v>0.1859716834535124</v>
       </c>
       <c r="J35">
-        <v>0.3931205887830069</v>
+        <v>0.195622778510606</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N35">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O35">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P35">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q35">
-        <v>727.5562643646208</v>
+        <v>614.8626030598463</v>
       </c>
       <c r="R35">
-        <v>4365.337586187726</v>
+        <v>3689.175618359078</v>
       </c>
       <c r="S35">
-        <v>0.0193600910654651</v>
+        <v>0.01371023534418108</v>
       </c>
       <c r="T35">
-        <v>0.01517477526827472</v>
+        <v>0.01055246777038409</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>65.40105833333332</v>
+        <v>37.45658766666667</v>
       </c>
       <c r="H36">
-        <v>196.203175</v>
+        <v>112.369763</v>
       </c>
       <c r="I36">
-        <v>0.3683515180453484</v>
+        <v>0.1859716834535124</v>
       </c>
       <c r="J36">
-        <v>0.3931205887830069</v>
+        <v>0.195622778510606</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N36">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O36">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P36">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q36">
-        <v>1677.535990831303</v>
+        <v>977.2238187269094</v>
       </c>
       <c r="R36">
-        <v>15097.82391748173</v>
+        <v>8795.014368542184</v>
       </c>
       <c r="S36">
-        <v>0.04463881508387783</v>
+        <v>0.02179018283436116</v>
       </c>
       <c r="T36">
-        <v>0.05248301659708474</v>
+        <v>0.02515713949811565</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>65.40105833333332</v>
+        <v>37.45658766666667</v>
       </c>
       <c r="H37">
-        <v>196.203175</v>
+        <v>112.369763</v>
       </c>
       <c r="I37">
-        <v>0.3683515180453484</v>
+        <v>0.1859716834535124</v>
       </c>
       <c r="J37">
-        <v>0.3931205887830069</v>
+        <v>0.195622778510606</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N37">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O37">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P37">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q37">
-        <v>1592.676417216286</v>
+        <v>1082.094560622046</v>
       </c>
       <c r="R37">
-        <v>14334.08775494657</v>
+        <v>9738.851045598412</v>
       </c>
       <c r="S37">
-        <v>0.0423807229562566</v>
+        <v>0.02412859558697615</v>
       </c>
       <c r="T37">
-        <v>0.04982811891691549</v>
+        <v>0.02785687709411883</v>
       </c>
     </row>
   </sheetData>
